--- a/week 7/زبان/Skale(V3.6).xlsx
+++ b/week 7/زبان/Skale(V3.6).xlsx
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="42">
         <v>4</v>
@@ -1635,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="42">
         <v>4</v>
@@ -1737,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="42">
         <v>4</v>
@@ -1775,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="42">
         <v>3</v>
@@ -1811,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="42">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" s="42">
         <v>4</v>
@@ -1919,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="42">
         <v>4</v>
@@ -2027,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="42">
         <v>4</v>
@@ -2063,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="42">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="42">
@@ -2335,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" s="42">
         <v>4</v>
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" s="42">
         <v>1</v>
@@ -2513,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="42">
         <v>3</v>
@@ -2603,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" s="42">
         <v>4</v>
@@ -2673,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" s="42">
         <v>4</v>
@@ -2711,7 +2711,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" s="42">
         <v>4</v>
@@ -2771,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" s="42">
         <v>4</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="E3" s="10">
         <f>IF(گوگل!E3=کلید!D$2,3,IF(گوگل!E3="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="10">
         <f>IF(گوگل!F3=کلید!E$2,3,IF(گوگل!F3="",0,-1))</f>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="M3" s="11">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="E6" s="10">
         <f>IF(گوگل!E6=کلید!D$2,3,IF(گوگل!E6="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="10">
         <f>IF(گوگل!F6=کلید!E$2,3,IF(گوگل!F6="",0,-1))</f>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E9" s="10">
         <f>IF(گوگل!E9=کلید!D$2,3,IF(گوگل!E9="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="10">
         <f>IF(گوگل!F9=کلید!E$2,3,IF(گوگل!F9="",0,-1))</f>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="E10" s="10">
         <f>IF(گوگل!E10=کلید!D$2,3,IF(گوگل!E10="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="10">
         <f>IF(گوگل!F10=کلید!E$2,3,IF(گوگل!F10="",0,-1))</f>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" si="0"/>
-        <v>36.666666666666664</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="E11" s="10">
         <f>IF(گوگل!E11=کلید!D$2,3,IF(گوگل!E11="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10">
         <f>IF(گوگل!F11=کلید!E$2,3,IF(گوگل!F11="",0,-1))</f>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="M11" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="E13" s="10">
         <f>IF(گوگل!E13=کلید!D$2,3,IF(گوگل!E13="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="10">
         <f>IF(گوگل!F13=کلید!E$2,3,IF(گوگل!F13="",0,-1))</f>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="E14" s="10">
         <f>IF(گوگل!E14=کلید!D$2,3,IF(گوگل!E14="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="10">
         <f>IF(گوگل!F14=کلید!E$2,3,IF(گوگل!F14="",0,-1))</f>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="M14" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="E17" s="10">
         <f>IF(گوگل!E17=کلید!D$2,3,IF(گوگل!E17="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="10">
         <f>IF(گوگل!F17=کلید!E$2,3,IF(گوگل!F17="",0,-1))</f>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="E18" s="10">
         <f>IF(گوگل!E18=کلید!D$2,3,IF(گوگل!E18="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="10">
         <f>IF(گوگل!F18=کلید!E$2,3,IF(گوگل!F18="",0,-1))</f>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="M18" s="11">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="E22" s="10">
         <f>IF(گوگل!E22=کلید!D$2,3,IF(گوگل!E22="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="10">
         <f>IF(گوگل!F22=کلید!E$2,3,IF(گوگل!F22="",0,-1))</f>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="M22" s="11">
         <f t="shared" si="0"/>
-        <v>43.333333333333336</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="E26" s="10">
         <f>IF(گوگل!E26=کلید!D$2,3,IF(گوگل!E26="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="10">
         <f>IF(گوگل!F26=کلید!E$2,3,IF(گوگل!F26="",0,-1))</f>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="E29" s="10">
         <f>IF(گوگل!E29=کلید!D$2,3,IF(گوگل!E29="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F29" s="10">
         <f>IF(گوگل!F29=کلید!E$2,3,IF(گوگل!F29="",0,-1))</f>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="M29" s="11">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="E31" s="10">
         <f>IF(گوگل!E31=کلید!D$2,3,IF(گوگل!E31="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="10">
         <f>IF(گوگل!F31=کلید!E$2,3,IF(گوگل!F31="",0,-1))</f>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>46.666666666666664</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="E34" s="10">
         <f>IF(گوگل!E34=کلید!D$2,3,IF(گوگل!E34="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="10">
         <f>IF(گوگل!F34=کلید!E$2,3,IF(گوگل!F34="",0,-1))</f>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="M34" s="11">
         <f t="shared" si="0"/>
-        <v>73.333333333333329</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="E36" s="10">
         <f>IF(گوگل!E36=کلید!D$2,3,IF(گوگل!E36="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="10">
         <f>IF(گوگل!F36=کلید!E$2,3,IF(گوگل!F36="",0,-1))</f>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="M36" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="E37" s="10">
         <f>IF(گوگل!E37=کلید!D$2,3,IF(گوگل!E37="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="10">
         <f>IF(گوگل!F37=کلید!E$2,3,IF(گوگل!F37="",0,-1))</f>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="M37" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="E39" s="10">
         <f>IF(گوگل!E39=کلید!D$2,3,IF(گوگل!E39="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="10">
         <f>IF(گوگل!F39=کلید!E$2,3,IF(گوگل!F39="",0,-1))</f>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="M39" s="11">
         <f t="shared" si="0"/>
-        <v>46.666666666666664</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -6402,7 +6402,7 @@
     <row r="2" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A2" s="24">
         <f>RANK(O2, O$2:O$42)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>14</v>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="G3" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="O3" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="G4" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O4" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="G6" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
@@ -6696,13 +6696,13 @@
       </c>
       <c r="O6" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>37</v>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="G7" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
@@ -6756,13 +6756,13 @@
       </c>
       <c r="O7" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>50</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>43</v>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="G8" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="O8" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>73.333333333333329</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -6882,7 +6882,7 @@
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>15</v>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="G10" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
@@ -6936,13 +6936,13 @@
       </c>
       <c r="O10" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>45</v>
@@ -7002,7 +7002,7 @@
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>25</v>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="G13" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="O13" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>16</v>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="G14" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
@@ -7176,13 +7176,13 @@
       </c>
       <c r="O14" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>46.666666666666664</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>34</v>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="G15" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -7236,13 +7236,13 @@
       </c>
       <c r="O15" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>20</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>31</v>
@@ -7302,7 +7302,7 @@
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>13</v>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="G17" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
@@ -7356,13 +7356,13 @@
       </c>
       <c r="O17" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>17</v>
@@ -7422,7 +7422,7 @@
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>44</v>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="G19" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
@@ -7476,13 +7476,13 @@
       </c>
       <c r="O19" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>50</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>29</v>
@@ -7542,7 +7542,7 @@
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>42</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="G21" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
@@ -7596,13 +7596,13 @@
       </c>
       <c r="O21" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>36.666666666666664</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>38</v>
@@ -7662,7 +7662,7 @@
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>33</v>
@@ -7722,7 +7722,7 @@
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>35</v>
@@ -7782,7 +7782,7 @@
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>23</v>
@@ -7842,7 +7842,7 @@
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>40</v>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="G26" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
@@ -7896,13 +7896,13 @@
       </c>
       <c r="O26" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>46.666666666666664</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>49</v>
@@ -8022,7 +8022,7 @@
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>26</v>
@@ -8082,7 +8082,7 @@
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>36</v>
@@ -8104,7 +8104,7 @@
       </c>
       <c r="G30" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="O30" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>16.666666666666664</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -8262,7 +8262,7 @@
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>47</v>
@@ -8322,7 +8322,7 @@
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>21</v>
@@ -8382,7 +8382,7 @@
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>24</v>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="G35" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H35" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="O35" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>43.333333333333336</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -8622,7 +8622,7 @@
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>59</v>
@@ -8682,7 +8682,7 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>39</v>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="G40" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H40" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="O40" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>33.333333333333329</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -8802,7 +8802,7 @@
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>27</v>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="G42" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H42" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="O42" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="C2" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B2,درصد!B$2:B$44,0)),0)</f>
-        <v>16.666666666666664</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="C6" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B6,درصد!B$2:B$44,0)),0)</f>
-        <v>20</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9073,7 +9073,7 @@
       </c>
       <c r="C7" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B7,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="C8" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B8,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -9109,7 +9109,7 @@
       </c>
       <c r="C10" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B10,درصد!B$2:B$44,0)),0)</f>
-        <v>73.333333333333329</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="C11" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B11,درصد!B$2:B$44,0)),0)</f>
-        <v>33.333333333333329</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="C12" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B12,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="C19" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B19,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="C20" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B20,درصد!B$2:B$44,0)),0)</f>
-        <v>46.666666666666664</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -9253,7 +9253,7 @@
       </c>
       <c r="C22" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B22,درصد!B$2:B$44,0)),0)</f>
-        <v>43.333333333333336</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="C24" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B24,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="C25" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B25,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -9313,7 +9313,7 @@
       </c>
       <c r="C27" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B27,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="C29" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B29,درصد!B$2:B$44,0)),0)</f>
-        <v>46.666666666666664</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C31" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B31,درصد!B$2:B$44,0)),0)</f>
-        <v>50</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -9409,7 +9409,7 @@
       </c>
       <c r="C35" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B35)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B35,درصد!B$2:B$44,0)),0)</f>
-        <v>50</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="C41" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B41)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B41,درصد!B$2:B$44,0)),0)</f>
-        <v>36.666666666666664</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -9568,10 +9568,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2" s="21">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D2" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C2)=1,"حاضر","غایب")</f>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="G2" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="O2" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9628,10 +9628,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="21">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="D3" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C3)=1,"حاضر","غایب")</f>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="G3" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="O3" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9688,10 +9688,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C4" s="21">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="D4" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C4)=1,"حاضر","غایب")</f>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="G4" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="O4" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9748,10 +9748,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="21">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="D5" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C5)=1,"حاضر","غایب")</f>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="G5" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9799,19 +9799,19 @@
       </c>
       <c r="O5" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A6" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C6" s="21">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="D6" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C6)=1,"حاضر","غایب")</f>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="G6" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9865,13 +9865,13 @@
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="21">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="D7" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C7)=1,"حاضر","غایب")</f>
@@ -9911,15 +9911,15 @@
       </c>
       <c r="M7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>76.666666666666671</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9928,10 +9928,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="21">
-        <v>1009</v>
+        <v>1031</v>
       </c>
       <c r="D8" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="G8" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9971,21 +9971,21 @@
       </c>
       <c r="M8" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>73.333333333333329</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>25</v>
@@ -10045,7 +10045,7 @@
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>26</v>
@@ -10105,7 +10105,7 @@
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>15</v>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="G11" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10159,19 +10159,19 @@
       </c>
       <c r="O11" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C12" s="21">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
@@ -10187,11 +10187,11 @@
       </c>
       <c r="G12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10207,31 +10207,31 @@
       </c>
       <c r="L12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O12" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C13" s="21">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D13" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="G13" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10279,19 +10279,19 @@
       </c>
       <c r="O13" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C14" s="21">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="D14" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
@@ -10307,15 +10307,15 @@
       </c>
       <c r="G14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10323,7 +10323,7 @@
       </c>
       <c r="K14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10331,27 +10331,27 @@
       </c>
       <c r="M14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O14" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C15" s="21">
-        <v>1006</v>
+        <v>1034</v>
       </c>
       <c r="D15" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="E15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10367,11 +10367,11 @@
       </c>
       <c r="G15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10391,15 +10391,15 @@
       </c>
       <c r="M15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>60</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10408,10 +10408,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="21">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="D16" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
@@ -10427,11 +10427,11 @@
       </c>
       <c r="G16" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10443,23 +10443,23 @@
       </c>
       <c r="K16" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O16" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>53.333333333333336</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10468,10 +10468,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C17" s="21">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="D17" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C17)=1,"حاضر","غایب")</f>
@@ -10487,7 +10487,7 @@
       </c>
       <c r="G17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="I17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="L17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10515,23 +10515,23 @@
       </c>
       <c r="N17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>53.333333333333336</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C18" s="21">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D18" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
@@ -10547,11 +10547,11 @@
       </c>
       <c r="G18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="K18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10571,27 +10571,27 @@
       </c>
       <c r="M18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O18" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="21">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="D19" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C19)=1,"حاضر","غایب")</f>
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10607,11 +10607,11 @@
       </c>
       <c r="G19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10619,11 +10619,11 @@
       </c>
       <c r="J19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10631,15 +10631,15 @@
       </c>
       <c r="M19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10648,10 +10648,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C20" s="21">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="D20" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
@@ -10667,11 +10667,11 @@
       </c>
       <c r="G20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10683,7 +10683,7 @@
       </c>
       <c r="K20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10691,27 +10691,27 @@
       </c>
       <c r="M20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O20" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>46.666666666666664</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C21" s="21">
-        <v>1019</v>
+        <v>1037</v>
       </c>
       <c r="D21" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C21)=1,"حاضر","غایب")</f>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="G21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10739,39 +10739,39 @@
       </c>
       <c r="J21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O21" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>46.666666666666664</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C22" s="21">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="D22" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
@@ -10783,23 +10783,23 @@
       </c>
       <c r="F22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="N22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>46.666666666666664</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10828,10 +10828,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C23" s="21">
-        <v>1021</v>
+        <v>1040</v>
       </c>
       <c r="D23" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
@@ -10847,15 +10847,15 @@
       </c>
       <c r="G23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="K23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="M23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="O23" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>43.333333333333336</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10888,10 +10888,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="21">
-        <v>1017</v>
+        <v>1038</v>
       </c>
       <c r="D24" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C24)=1,"حاضر","غایب")</f>
@@ -10903,11 +10903,11 @@
       </c>
       <c r="F24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10915,11 +10915,11 @@
       </c>
       <c r="I24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10927,31 +10927,31 @@
       </c>
       <c r="L24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>40</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="21">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="D25" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="E25" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10967,19 +10967,19 @@
       </c>
       <c r="G25" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10987,19 +10987,19 @@
       </c>
       <c r="L25" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O25" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>36.666666666666664</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -11008,10 +11008,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C26" s="21">
-        <v>1033</v>
+        <v>1017</v>
       </c>
       <c r="D26" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C26)=1,"حاضر","غایب")</f>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="F26" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H26" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11039,11 +11039,11 @@
       </c>
       <c r="J26" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11051,27 +11051,27 @@
       </c>
       <c r="M26" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>33.333333333333329</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C27" s="21">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="D27" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
@@ -11079,15 +11079,15 @@
       </c>
       <c r="E27" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11099,23 +11099,23 @@
       </c>
       <c r="J27" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
@@ -11125,13 +11125,13 @@
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C28" s="21">
-        <v>1010</v>
+        <v>1041</v>
       </c>
       <c r="D28" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="G28" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11159,7 +11159,7 @@
       </c>
       <c r="J28" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11171,11 +11171,11 @@
       </c>
       <c r="M28" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
@@ -11185,13 +11185,13 @@
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" s="21">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D29" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
@@ -11199,27 +11199,27 @@
       </c>
       <c r="E29" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11227,19 +11227,19 @@
       </c>
       <c r="L29" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>26.666666666666668</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -11248,10 +11248,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C30" s="21">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="D30" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
@@ -11259,19 +11259,19 @@
       </c>
       <c r="E30" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11287,31 +11287,31 @@
       </c>
       <c r="L30" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N30" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>23.333333333333332</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C31" s="21">
-        <v>1029</v>
+        <v>1004</v>
       </c>
       <c r="D31" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
@@ -11319,27 +11319,27 @@
       </c>
       <c r="E31" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="L31" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11355,11 +11355,11 @@
       </c>
       <c r="N31" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O31" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>23.333333333333332</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -11368,10 +11368,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="21">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="D32" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C32)=1,"حاضر","غایب")</f>
@@ -11379,27 +11379,27 @@
       </c>
       <c r="E32" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11407,31 +11407,31 @@
       </c>
       <c r="L32" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M32" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O32" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>20</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C33" s="21">
-        <v>1001</v>
+        <v>1029</v>
       </c>
       <c r="D33" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C33)=1,"حاضر","غایب")</f>
@@ -11443,11 +11443,11 @@
       </c>
       <c r="F33" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G33" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="J33" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="L33" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11475,11 +11475,11 @@
       </c>
       <c r="N33" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O33" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>16.666666666666664</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
